--- a/doc/导入表格样式_20170524v2.1_用户(CPS专用).xlsx
+++ b/doc/导入表格样式_20170524v2.1_用户(CPS专用).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>账号名称user_name</t>
   </si>
@@ -86,10 +86,7 @@
     <t>pid</t>
   </si>
   <si>
-    <t>admin_add12</t>
-  </si>
-  <si>
-    <t>我是管理员哦</t>
+    <t>admin_add123</t>
   </si>
   <si>
     <t>18958222222</t>
@@ -110,10 +107,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>客户经理_add2</t>
-  </si>
-  <si>
-    <t>khjl_000</t>
+    <t>客户经理_add23</t>
   </si>
   <si>
     <t>jieqiang@jie.com</t>
@@ -125,10 +119,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>adjyc_add2</t>
-  </si>
-  <si>
-    <t>我是CPS管理员</t>
+    <t>adjyc_add23</t>
   </si>
   <si>
     <t>18958222229</t>
@@ -140,10 +131,7 @@
     <t>家庭地址1</t>
   </si>
   <si>
-    <t>北京分行_add2</t>
-  </si>
-  <si>
-    <t>北京分行_bjfh</t>
+    <t>北京分行_add23</t>
   </si>
   <si>
     <t>18958222222@126.com</t>
@@ -155,19 +143,13 @@
     <t>4</t>
   </si>
   <si>
-    <t>福建分行_add2</t>
-  </si>
-  <si>
-    <t>福建分行_fjfh</t>
+    <t>福建分行_add23</t>
   </si>
   <si>
     <t>62222024100010101014</t>
   </si>
   <si>
-    <t>海淀支行_add2</t>
-  </si>
-  <si>
-    <t>海淀支行_hdzh</t>
+    <t>海淀支行_add23</t>
   </si>
   <si>
     <t>18958222221</t>
@@ -182,10 +164,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>厦门支行_add2</t>
-  </si>
-  <si>
-    <t>厦门支行_hdzh</t>
+    <t>厦门支行_add23</t>
   </si>
   <si>
     <t>17888666666</t>
@@ -197,10 +176,7 @@
     <t>62222024100010101016</t>
   </si>
   <si>
-    <t>cps_add2</t>
-  </si>
-  <si>
-    <t>CPS_001</t>
+    <t>cps_add23</t>
   </si>
   <si>
     <t>18999999999</t>
@@ -215,10 +191,7 @@
     <t>家庭地址2333</t>
   </si>
   <si>
-    <t>商城_add2</t>
-  </si>
-  <si>
-    <t>商城_001</t>
+    <t>商城_add23</t>
   </si>
   <si>
     <t>3500126544@qq.com</t>
@@ -230,10 +203,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>昌平支行_add3</t>
-  </si>
-  <si>
-    <t>昌平支行_张三</t>
+    <t>昌平支行_add33</t>
   </si>
   <si>
     <t>13910938911</t>
@@ -243,6 +213,9 @@
   </si>
   <si>
     <t>昌平区</t>
+  </si>
+  <si>
+    <t>昌平支行_add83</t>
   </si>
 </sst>
 </file>
@@ -267,9 +240,30 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,15 +277,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,69 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -395,16 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,6 +343,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,6 +400,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,163 +496,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,17 +639,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,30 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -718,141 +676,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,16 +1171,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="247" width="11.5809523809524"/>
+    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="18.4285714285714" customWidth="1"/>
+    <col min="3" max="247" width="11.5809523809524"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1241,259 +1215,285 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
